--- a/lstm_turn_taking_prediction_ADOS_5foldCV/two_subnets_Model0.xlsx
+++ b/lstm_turn_taking_prediction_ADOS_5foldCV/two_subnets_Model0.xlsx
@@ -489,13 +489,13 @@
   </sheetPr>
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="A2:E13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G95" activeCellId="0" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
